--- a/Serie_A/modello_logico/ml_serie_a.xlsx
+++ b/Serie_A/modello_logico/ml_serie_a.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\calcio\modello_logico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\DATABASE-FSD1\Serie_A\modello_logico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFADDCA-D040-47F4-AA62-3D0292FD34CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D552B-DE75-4058-A252-7F284E6EF1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{099B281A-DC79-42D9-AAD9-754F7DEF1577}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>CAMPIONATO</t>
   </si>
@@ -187,13 +187,13 @@
     <t>ID_gol</t>
   </si>
   <si>
-    <t>(FK)</t>
-  </si>
-  <si>
     <t>casa_trasferta</t>
   </si>
   <si>
     <t>espulsioni</t>
+  </si>
+  <si>
+    <t>CLASSIFICA</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -327,20 +327,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,19 +396,43 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -682,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53854CA-F955-438D-854B-43CA509EE07B}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,23 +764,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="6">
+      <c r="D2" s="28">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
@@ -724,24 +789,22 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="17" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -752,19 +815,17 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
@@ -773,17 +834,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="16">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,644 +851,577 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
+      <c r="K12" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="14" t="s">
-        <v>40</v>
+      <c r="K13" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="14" t="s">
-        <v>41</v>
+      <c r="K14" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="14" t="s">
-        <v>42</v>
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="13">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="24">
         <v>1</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="8" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="6"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="F32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="6"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="11"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="12"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B32:C32"/>
+  <mergeCells count="7">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J24:K24"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
